--- a/相关文件/info.xlsx
+++ b/相关文件/info.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\JAVA-Code\Team8\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\JAVA-Code\Team8\相关文件\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{809EA7BD-8EE7-440D-8869-88FF7C29F6B2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{705E7214-9FD6-465A-A9CB-AFBACB8F7E56}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="12180" yWindow="60" windowWidth="16575" windowHeight="11385" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="数据库" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="170" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="169" uniqueCount="91">
   <si>
     <t>列名</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -107,10 +107,6 @@
   </si>
   <si>
     <t>所使用教科书的ISBN</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>无</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -432,11 +428,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -723,8 +719,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E36"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B38" sqref="B38"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -737,13 +733,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="23.25" x14ac:dyDescent="0.2">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="2"/>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
-      <c r="E1" s="2"/>
+      <c r="B1" s="3"/>
+      <c r="C1" s="3"/>
+      <c r="D1" s="3"/>
+      <c r="E1" s="3"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
@@ -762,7 +758,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>5</v>
       </c>
@@ -779,7 +775,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>10</v>
       </c>
@@ -794,7 +790,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>12</v>
       </c>
@@ -819,21 +815,19 @@
       <c r="C6" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D6" s="1" t="s">
-        <v>20</v>
-      </c>
+      <c r="D6" s="4"/>
       <c r="E6" s="1" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="8" spans="1:5" ht="23.25" x14ac:dyDescent="0.2">
-      <c r="A8" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="B8" s="2"/>
-      <c r="C8" s="2"/>
-      <c r="D8" s="2"/>
-      <c r="E8" s="2"/>
+      <c r="A8" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="B8" s="3"/>
+      <c r="C8" s="3"/>
+      <c r="D8" s="3"/>
+      <c r="E8" s="3"/>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
@@ -863,15 +857,15 @@
         <v>8</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="11" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B11" s="1" t="s">
         <v>11</v>
@@ -880,30 +874,30 @@
         <v>8</v>
       </c>
       <c r="D11" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="E11" s="1" t="s">
         <v>29</v>
-      </c>
-      <c r="E11" s="1" t="s">
-        <v>30</v>
       </c>
     </row>
     <row r="12" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D12" s="3"/>
+      <c r="D12" s="2"/>
       <c r="E12" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B13" s="1" t="s">
         <v>11</v>
@@ -913,12 +907,12 @@
       </c>
       <c r="D13" s="1"/>
       <c r="E13" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B14" s="1" t="s">
         <v>6</v>
@@ -927,12 +921,12 @@
         <v>15</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B15" s="1" t="s">
         <v>11</v>
@@ -941,31 +935,31 @@
         <v>15</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B16" s="1" t="s">
         <v>26</v>
-      </c>
-      <c r="B16" s="1" t="s">
-        <v>27</v>
       </c>
       <c r="C16" s="1" t="s">
         <v>15</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="18" spans="1:5" ht="23.25" x14ac:dyDescent="0.2">
-      <c r="A18" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="B18" s="2"/>
-      <c r="C18" s="2"/>
-      <c r="D18" s="2"/>
-      <c r="E18" s="2"/>
+      <c r="A18" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="B18" s="3"/>
+      <c r="C18" s="3"/>
+      <c r="D18" s="3"/>
+      <c r="E18" s="3"/>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
@@ -995,15 +989,15 @@
         <v>8</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="21" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B21" s="1" t="s">
         <v>11</v>
@@ -1012,30 +1006,30 @@
         <v>8</v>
       </c>
       <c r="D21" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="E21" s="1" t="s">
         <v>29</v>
-      </c>
-      <c r="E21" s="1" t="s">
-        <v>30</v>
       </c>
     </row>
     <row r="22" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C22" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D22" s="3"/>
+      <c r="D22" s="2"/>
       <c r="E22" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="23" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B23" s="1" t="s">
         <v>11</v>
@@ -1045,12 +1039,12 @@
       </c>
       <c r="D23" s="1"/>
       <c r="E23" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="24" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B24" s="1" t="s">
         <v>6</v>
@@ -1059,12 +1053,12 @@
         <v>15</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="25" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B25" s="1" t="s">
         <v>11</v>
@@ -1073,32 +1067,32 @@
         <v>15</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="26" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B26" s="1" t="s">
         <v>26</v>
-      </c>
-      <c r="B26" s="1" t="s">
-        <v>27</v>
       </c>
       <c r="C26" s="1" t="s">
         <v>15</v>
       </c>
       <c r="E26" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="27" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="28" spans="1:5" ht="23.25" x14ac:dyDescent="0.2">
-      <c r="A28" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="B28" s="2"/>
-      <c r="C28" s="2"/>
-      <c r="D28" s="2"/>
-      <c r="E28" s="2"/>
+      <c r="A28" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="B28" s="3"/>
+      <c r="C28" s="3"/>
+      <c r="D28" s="3"/>
+      <c r="E28" s="3"/>
     </row>
     <row r="29" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="1" t="s">
@@ -1128,45 +1122,45 @@
         <v>8</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E30" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="31" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C31" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D31" s="3"/>
+      <c r="D31" s="2"/>
       <c r="E31" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="32" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C32" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D32" s="3"/>
+      <c r="D32" s="2"/>
       <c r="E32" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="33" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B33" s="1" t="s">
         <v>13</v>
@@ -1176,35 +1170,35 @@
       </c>
       <c r="D33" s="1"/>
       <c r="E33" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="34" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C34" s="1" t="s">
         <v>15</v>
       </c>
       <c r="E34" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="35" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C35" s="1" t="s">
         <v>15</v>
       </c>
       <c r="E35" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.2">
@@ -1216,10 +1210,10 @@
   </sheetData>
   <mergeCells count="5">
     <mergeCell ref="A28:E28"/>
-    <mergeCell ref="D3:D5"/>
     <mergeCell ref="A1:E1"/>
     <mergeCell ref="A8:E8"/>
     <mergeCell ref="A18:E18"/>
+    <mergeCell ref="D3:D6"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1231,7 +1225,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{754C01EE-4D9F-4159-8D07-26593161E867}">
   <dimension ref="A1:C14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E20" sqref="E20"/>
     </sheetView>
   </sheetViews>
@@ -1244,78 +1238,78 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
+        <v>54</v>
+      </c>
+      <c r="B1" t="s">
         <v>55</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>56</v>
-      </c>
-      <c r="C1" t="s">
-        <v>57</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
   </sheetData>
@@ -1339,83 +1333,83 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
+        <v>54</v>
+      </c>
+      <c r="B1" t="s">
         <v>55</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>56</v>
-      </c>
-      <c r="C1" t="s">
-        <v>57</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
   </sheetData>
@@ -1440,48 +1434,48 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
+        <v>54</v>
+      </c>
+      <c r="B1" t="s">
         <v>55</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>56</v>
-      </c>
-      <c r="C1" t="s">
-        <v>57</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
   </sheetData>
